--- a/public/content/乐迈往来表--202105.xlsx
+++ b/public/content/乐迈往来表--202105.xlsx
@@ -112,16 +112,16 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">嘉善海川印刷有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海梵登广告有限公司</t>
+    <t xml:space="preserve">张少英</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉善颐佳网络科技有限公司</t>
   </si>
   <si>
     <t xml:space="preserve">2021</t>
@@ -139,15 +139,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">广州市美恒展览策划有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">湖南岳盛新型材料有限公司</t>
   </si>
   <si>
@@ -232,24 +223,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">绍兴市上虞凯博伞业有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温州康合包装有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">佛山拓浦商贸有限公司</t>
   </si>
   <si>
@@ -259,24 +232,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">佛山市佳美华贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">久晟建材（上海）有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">台州岭上交通设施有限公司</t>
   </si>
   <si>
@@ -382,94 +337,1429 @@
     <t xml:space="preserve">月份</t>
   </si>
   <si>
-    <t xml:space="preserve">乐迈-浙江台州 (江志刚)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江临安（李锋）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-辽宁丹东（王充）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-陕西西乡（王琴）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北鄂州（余利春）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河北保定（崔海霞）</t>
+    <t xml:space="preserve">佳乐美</t>
   </si>
   <si>
     <t xml:space="preserve">乐迈-江苏泰州(魏忠)</t>
   </si>
   <si>
-    <t xml:space="preserve">乐迈-河南鹤壁（梁玉杰）</t>
+    <t xml:space="preserve">乐迈-江西吉安市泰和县（刘居祯）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈中国-华东工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-香港（benny）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-青岛素美家居（宋军）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏新沂（马继伦）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-成都品逸博阳（呙险静）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江诸暨（潘昌照）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-深圳康森实业有限公司-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南东跃贸易-彭征宇</t>
   </si>
   <si>
     <t xml:space="preserve">乐迈-深圳启东建材（普琦）—工程</t>
   </si>
   <si>
+    <t xml:space="preserve">乐迈- CBD-项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-成都直营店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-沈阳星诺汇（刘强）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖北（王建伟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-上海爵盛</t>
+  </si>
+  <si>
     <t xml:space="preserve">乐迈-广地花园项目</t>
   </si>
   <si>
-    <t xml:space="preserve">乐迈-湖南东跃贸易-彭征宇</t>
+    <t xml:space="preserve">深圳新家生活科技服务有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东东莞（林国英）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-鸣煌-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预收账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海乐迈地板有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额(RMB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金额($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帐龄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账龄是否正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">责任会计签名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江杭州（施诺）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京千年树贸易有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零售</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-福建三明(王建华)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽淮北(周丽燕)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽蚌埠(田莉)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佳乐美-陕西分公司(韩忠)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东烟台(刘雅雯)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东日照(董济华)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东威海(王小刚)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-吉林榆树(崔巍)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南周口（时宗举）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东烟台（杨本浦）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-重庆璧山（陈楠）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏扬州（高伟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南郴州（李源）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽芜湖（冯海涛）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东烟台（徐新东）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南永州（伍洲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-上海源陆能源（张宾）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖北黄石（赵成华）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南浏阳（焦光禄）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-滨州华纳商贸（张中华）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南浏阳（沈玉桓）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-韩广东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-万福阁家具（昆山）有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖北襄阳（张丽）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖北宜昌（熊银程）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-海南海口（刘光超）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东济南（谷朝怀）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南（卢勇）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-贵州六盘水(成照龙)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江西高安（邹淑红）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海联森木业有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-上海雁鸣建材有限公司-直营</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿姆斯壮（中国）投资有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江萧山（曹二卯）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东滕州（顾士季）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-重庆万州（王海柱）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-黑龙江佳木斯（徐利佳）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东东营（亢士民）　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广西南宁（梁荣）　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfec 金鹰艾格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-苏州亿瑞德（徐晓东）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏丹阳（陈志鹏）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈设计-郑戈天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-辽宁盖州(芦娜)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南南阳（陆军）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江义乌（匡兰芳）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东龙口（奕明亮）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江西赣州（奚海平）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江丽水（梅卫东）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-重庆奉节（谢永刚）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-贵州贵阳(张军)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏镇江（韦靓）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海森甄贸易有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南玉溪（唐爱）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江温州（施益帖）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东汕头（陈壁锐）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-陕西西安（韩忠）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏南通（孙芳芳）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-贵州道真（吴四建）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽淮南（张军旗）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东深圳（陈利坤）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏常州（孙斌）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东济南（徐茂阵）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南大理（罗继松）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河北张家口（李晓英）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏宜兴（蒋卫康）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南曲靖（薛小芳）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏徐州（郭星）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏靖江（叶翠莲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南红河（李鹏）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江西乐平（徐厅）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河北沧州（崔鹏飞）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-乐迈中国工程中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽木兰世家（孙志燕）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东集一家居（黄豪）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南郑州（王欢）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-金寨红达建材装饰工程有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖北黄冈（吴小琴）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江格莱美（姚炳荣）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南昆明（吴艳春）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-厦门源嘉林商贸（黄伟嘉）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江瑞安（金杨宝）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南通海（沐杰琼）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东潍坊（周爱凤）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东黄岛（崔爱清）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-天津三越交通（蒋兆南）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东好适家家居（刘辉）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-杭州丰彩新型（周瑜）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东枣庄(张福国)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江富阳（张聪）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南益阳（夏湘华）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏无锡（胡新华）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏张家港（李云）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-武汉正誉环境（李琨）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南研井环境（成源）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-四川新创合聚（何毅）-工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈--舟山市天祺贸易（周厚德）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南常德（谢友）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云阳县优卡优建材（张满堂）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江临海（章文景）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏扬中（潘进江）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东临沂（马士朋）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-常熟市古月装饰（王益道）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东会力贸易（李学良）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-合肥恒爱建筑（吴彩霞）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江永康（王龙梅）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-宁波鄞州（常士双）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南华宁（张元红)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-海南海口（黎健）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东青岛（张文琪）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-郑州福耐商贸（王丽丽）—工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">乐迈-河南安阳（南鹏）</t>
   </si>
   <si>
-    <t xml:space="preserve">乐迈- CBD-项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-成都直营店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-沈阳星诺汇（刘强）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北（王建伟）</t>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南德培商贸（周立民）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东泰安（钟建峰)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏镇江（武珩）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏泰兴（陈萍）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-贵州遵义（刘云海）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-连云港科吉建材（周体勇）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南双牌（蒋小平）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">乐迈—上海龙社商贸（林德枝）-工程</t>
   </si>
   <si>
-    <t xml:space="preserve">乐迈-上海爵盛</t>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈—上海康图建筑（韩林）—工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏盐城（李亮）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-碧桂园-项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广东惠州（肖俊峰）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-重庆（刘迎峰）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-云南文山（文诚物业）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏江阴（震恒贸易）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河南商丘（青巢装饰）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-浙江慈溪（张未来）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-山东即墨（贾昆）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">乐迈-湖南衡阳（祝乐华）</t>
   </si>
   <si>
-    <t xml:space="preserve">佳乐美</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-长沙乐迈装饰（刘波）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深圳新家生活科技服务有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽淮南（张军旗）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-金寨红达建材装饰工程有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈中国-华东工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东湛江（谢明胜）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏新沂（马继伦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江诸暨（潘昌照）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预收账款</t>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-河北唐山（壹尚装饰）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-贵州凯里（许冰）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-四川西昌（侯玉君）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈中国-北方工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-四川南充（于洲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-江苏邳州（于军港）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-嘉兴直营</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南直营</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-湖南郴州（汤旭）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-安徽宿州（郭明光）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐迈-广西柳州（祝祯星）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贝朗卫浴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合     计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他应收款</t>
   </si>
   <si>
     <t xml:space="preserve">上海乐迈地板有限公司</t>
@@ -487,13 +1777,10 @@
     <t xml:space="preserve">日 </t>
   </si>
   <si>
-    <t xml:space="preserve">客户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额(RMB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金额($)</t>
+    <t xml:space="preserve">客户                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额</t>
   </si>
   <si>
     <t xml:space="preserve">帐龄</t>
@@ -514,1341 +1801,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">南京千年树贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东烟台(刘雅雯)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东威海(王小刚)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-吉林榆树(崔巍)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-重庆璧山（陈楠）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东烟台（徐新东）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南永州（伍洲）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-上海源陆能源（张宾）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北黄石（赵成华）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南浏阳（焦光禄）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-滨州华纳商贸（张中华）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南浏阳（沈玉桓）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-韩广东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-万福阁家具（昆山）有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北襄阳（张丽）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北宜昌（熊银程）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-海南海口（刘光超）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东济南（谷朝怀）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南（卢勇）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江西高安（邹淑红）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海联森木业有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-上海雁鸣建材有限公司-直营</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿姆斯壮（中国）投资有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江萧山（曹二卯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东滕州（顾士季）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-黑龙江佳木斯（徐利佳）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfec 金鹰艾格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏丹阳（陈志鹏）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈设计-郑戈天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-辽宁盖州(芦娜)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东龙口（奕明亮）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江丽水（梅卫东）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-重庆奉节（谢永刚）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏镇江（韦靓）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海森甄贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东深圳（陈利坤）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东济南（徐茂阵）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏宜兴（蒋卫康）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江格莱美（姚炳荣）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-西安美克家具（马启顺）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江临海（章文景）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-常熟市古月装饰（王益道）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-宁波鄞州（常士双）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东泰安（钟建峰)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏镇江（武珩）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河北唐山（壹尚装饰）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-四川西昌（侯玉君）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏邳州（于军港）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-嘉兴直营</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南直营</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南郴州（汤旭）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽宿州（郭明光）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广西柳州（祝祯星）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-贵州六盘水(成照龙)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏江阴（任少锋）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河北沧州（崔鹏飞）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖北黄冈（吴小琴）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东黄岛（崔爱清）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏无锡（胡新华）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-青岛素美家居（宋军）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东青岛（张文琪）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-郑州福耐商贸（王丽丽）—工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-碧桂园-项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东惠州（肖俊峰）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏扬中（潘进江）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东临沂（马士朋）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东会力贸易（李学良）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江永康（王龙梅）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-深圳康森实业有限公司-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南华宁（张元红)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-海南海口（黎健）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南德培商贸（周立民）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏泰兴（陈萍）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-贵州遵义（刘云海）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-连云港科吉建材（周体勇）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南双牌（蒋小平）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈—上海康图建筑（韩林）—工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏盐城（李亮）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-重庆（刘迎峰）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南文山（文诚物业）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江慈溪（张未来）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东即墨（贾昆）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-贵州凯里（许冰）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈中国-北方工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-四川南充（于洲）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江杭州（施诺）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">零售</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-福建三明(王建华)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽淮北(周丽燕)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽蚌埠(田莉)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东日照(董济华)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东烟台（杨本浦）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏扬州（高伟）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南郴州（李源）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽芜湖（冯海涛）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江西吉安市泰和县（刘居祯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-重庆万州（王海柱）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东东营（亢士民）　</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广西南宁（梁荣）　</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-苏州亿瑞德（徐晓东）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南南阳（陆军）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">佳乐美-陕西分公司(韩忠)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南周口（时宗举）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南通海（沐杰琼）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东枣庄(张福国)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-四川新创合聚（何毅）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江义乌（匡兰芳）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江西赣州（奚海平）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-贵州贵阳(张军)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南玉溪（唐爱）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江温州（施益帖）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东汕头（陈壁锐）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-陕西西安（韩忠）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏南通（孙芳芳）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-贵州道真（吴四建）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏常州（孙斌）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南大理（罗继松）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河北张家口（李晓英）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南曲靖（薛小芳）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏徐州（郭星）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏靖江（叶翠莲）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南红河（李鹏）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江西乐平（徐厅）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-乐迈中国工程中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-安徽木兰世家（孙志燕）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-广东集一家居（黄豪）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南郑州（王欢）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云南昆明（吴艳春）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-厦门源嘉林商贸（黄伟嘉）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江瑞安（金杨宝）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-香港（benny）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东潍坊（周爱凤）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-天津三越交通（蒋兆南）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-山东好适家家居（刘辉）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-杭州丰彩新型（周瑜）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-浙江富阳（张聪）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南益阳（夏湘华）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-江苏张家港（李云）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-武汉正誉环境（李琨）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南研井环境（成源）-工程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈--舟山市天祺贸易（周厚德）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-湖南常德（谢友）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-云阳县优卡优建材（张满堂）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乐迈-河南商丘（青巢装饰）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合     计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他应收款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海乐迈地板有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">客户                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帐龄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">账龄是否正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">责任会计签名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">沈霞</t>
   </si>
   <si>
@@ -1859,6 +1811,33 @@
   </si>
   <si>
     <t xml:space="preserve">刘晓娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏岑娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丁莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邵卫东</t>
   </si>
   <si>
     <t xml:space="preserve">2021</t>
@@ -3407,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="12">
-        <v>12566.4</v>
+        <v>10183.64</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="14"/>
@@ -3434,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="12">
-        <v>8600</v>
+        <v>1300</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="14"/>
@@ -3488,7 +3467,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="12">
-        <v>86090</v>
+        <v>3302216.12</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="14"/>
@@ -3515,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="12">
-        <v>2270417.8</v>
+        <v>14651885.45</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="14"/>
@@ -3528,50 +3507,23 @@
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
     </row>
-    <row r="10" ht="63.75" spans="1:15">
-      <c r="A10" s="16" t="s">
+    <row r="10" ht="15" spans="1:9">
+      <c r="A10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="12">
-        <v>11052103.02</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="61">
-        <f>SUM(E4:E10)</f>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="61">
+        <f>SUM(E4:E9)</f>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="73"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3600,7 +3552,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3613,13 +3565,13 @@
     </row>
     <row r="2" ht="15" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="9"/>
@@ -3631,31 +3583,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="I3" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -3663,16 +3615,16 @@
     </row>
     <row r="4" ht="63.75" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17">
         <v>31</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="12">
         <v>89556</v>
@@ -3687,16 +3639,16 @@
     </row>
     <row r="5" ht="63.75" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17">
         <v>31</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="12">
         <v>1730</v>
@@ -3711,16 +3663,16 @@
     </row>
     <row r="6" ht="63.75" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17">
         <v>31</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12">
         <v>680</v>
@@ -3735,19 +3687,19 @@
     </row>
     <row r="7" ht="63.75" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="17">
         <v>31</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="12">
-        <v>8000</v>
+        <v>11742.3</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="14"/>
@@ -3759,19 +3711,19 @@
     </row>
     <row r="8" ht="63.75" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="17">
         <v>31</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12">
-        <v>6200</v>
+        <v>181.19</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="14"/>
@@ -3783,19 +3735,19 @@
     </row>
     <row r="9" ht="63.75" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="17">
         <v>31</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="12">
-        <v>11742.3</v>
+        <v>271200</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="14"/>
@@ -3807,19 +3759,19 @@
     </row>
     <row r="10" ht="63.75" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="17">
         <v>31</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="12">
-        <v>4348.67</v>
+        <v>116460</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="14"/>
@@ -3831,19 +3783,19 @@
     </row>
     <row r="11" ht="63.75" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="17">
         <v>31</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12">
-        <v>48951</v>
+        <v>14380.53</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="14"/>
@@ -3855,19 +3807,19 @@
     </row>
     <row r="12" ht="63.75" spans="1:12">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="17">
         <v>31</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="12">
-        <v>181.19</v>
+        <v>172800</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="14"/>
@@ -3879,19 +3831,19 @@
     </row>
     <row r="13" ht="63.75" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="17">
         <v>31</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="12">
-        <v>271200</v>
+        <v>571032</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="14"/>
@@ -3903,19 +3855,19 @@
     </row>
     <row r="14" ht="63.75" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17">
         <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12">
-        <v>116460</v>
+        <v>6160</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="14"/>
@@ -3925,121 +3877,29 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="63.75" spans="1:12">
-      <c r="A15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="17">
-        <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="12">
-        <v>14380.53</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" ht="63.75" spans="1:12">
-      <c r="A16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="17">
-        <v>31</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="12">
-        <v>172800</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" ht="63.75" spans="1:12">
-      <c r="A17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="17">
-        <v>31</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="12">
-        <v>571032</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" ht="63.75" spans="1:12">
-      <c r="A18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="17">
-        <v>31</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="12">
-        <v>18480</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61">
-        <f>SUM(E4:E18)</f>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61">
+        <f>SUM(E4:E14)</f>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" customHeight="1"/>
+    <row r="17" customHeight="1" spans="5:5">
+      <c r="E17"/>
+    </row>
+    <row r="18" customHeight="1"/>
+    <row r="19" customHeight="1"/>
     <row r="20" customHeight="1"/>
-    <row r="21" customHeight="1" spans="5:5">
-      <c r="E21"/>
-    </row>
+    <row r="21" customHeight="1"/>
     <row r="22" customHeight="1"/>
     <row r="23" customHeight="1"/>
     <row r="24" customHeight="1"/>
@@ -4048,13 +3908,13 @@
     <row r="27" customHeight="1"/>
     <row r="28" customHeight="1"/>
     <row r="29" customHeight="1"/>
-    <row r="30" customHeight="1"/>
+    <row r="30" customHeight="1" spans="4:4">
+      <c r="D30" s="65"/>
+    </row>
     <row r="31" customHeight="1"/>
     <row r="32" customHeight="1"/>
     <row r="33" customHeight="1"/>
-    <row r="34" customHeight="1" spans="4:4">
-      <c r="D34" s="65"/>
-    </row>
+    <row r="34" customHeight="1"/>
     <row r="35" customHeight="1"/>
     <row r="36" customHeight="1"/>
     <row r="37" customHeight="1"/>
@@ -4101,14 +3961,10 @@
     <row r="78" customHeight="1"/>
     <row r="79" customHeight="1"/>
     <row r="80" customHeight="1"/>
-    <row r="81" customHeight="1"/>
-    <row r="82" customHeight="1"/>
-    <row r="83" customHeight="1"/>
-    <row r="84" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4136,7 +3992,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
@@ -4155,13 +4011,13 @@
     </row>
     <row r="2" ht="15" spans="1:15">
       <c r="A2" s="45" t="s">
-        <v>93                                                                                                                 单位：元       </v>
+        <v>78                                                                                                                 单位：元       </v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
       <c r="E2" s="29" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="9"/>
@@ -4176,51 +4032,51 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="51" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O3" s="27"/>
     </row>
     <row r="4" ht="63.75" spans="1:15">
       <c r="A4" s="51" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B4" s="12">
-        <v>0.11</v>
+        <v>8139.82</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -4238,10 +4094,10 @@
     </row>
     <row r="5" ht="63.75" spans="1:15">
       <c r="A5" s="51" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B5" s="12">
-        <v>0.62</v>
+        <v>130</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4259,10 +4115,10 @@
     </row>
     <row r="6" ht="63.75" spans="1:15">
       <c r="A6" s="51" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B6" s="12">
-        <v>1.52</v>
+        <v>12099.66</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4280,10 +4136,10 @@
     </row>
     <row r="7" ht="63.75" spans="1:15">
       <c r="A7" s="51" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B7" s="12">
-        <v>1.15</v>
+        <v>46850.02</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4301,10 +4157,10 @@
     </row>
     <row r="8" ht="63.75" spans="1:15">
       <c r="A8" s="51" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B8" s="12">
-        <v>0.34</v>
+        <v>998.21</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4322,10 +4178,10 @@
     </row>
     <row r="9" ht="63.75" spans="1:15">
       <c r="A9" s="51" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B9" s="12">
-        <v>0.4</v>
+        <v>381.32</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4343,10 +4199,10 @@
     </row>
     <row r="10" ht="63.75" spans="1:15">
       <c r="A10" s="51" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B10" s="12">
-        <v>130</v>
+        <v>307.49</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4364,10 +4220,10 @@
     </row>
     <row r="11" ht="63.75" spans="1:15">
       <c r="A11" s="51" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B11" s="12">
-        <v>0.66</v>
+        <v>4738.89</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4385,10 +4241,10 @@
     </row>
     <row r="12" ht="63.75" spans="1:15">
       <c r="A12" s="51" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B12" s="12">
-        <v>0.09</v>
+        <v>1733.52</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -4406,10 +4262,10 @@
     </row>
     <row r="13" ht="63.75" spans="1:15">
       <c r="A13" s="51" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B13" s="12">
-        <v>5255.03</v>
+        <v>28725.83</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4427,7 +4283,7 @@
     </row>
     <row r="14" ht="63.75" spans="1:15">
       <c r="A14" s="51" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B14" s="12">
         <v>524.05</v>
@@ -4448,10 +4304,10 @@
     </row>
     <row r="15" ht="63.75" spans="1:15">
       <c r="A15" s="51" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B15" s="12">
-        <v>39.76</v>
+        <v>0.09</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4469,10 +4325,10 @@
     </row>
     <row r="16" ht="63.75" spans="1:15">
       <c r="A16" s="51" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B16" s="12">
-        <v>936284.37</v>
+        <v>1614854.67</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4490,10 +4346,10 @@
     </row>
     <row r="17" ht="63.75" spans="1:15">
       <c r="A17" s="51" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B17" s="12">
-        <v>525435.67</v>
+        <v>660312.65</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4511,10 +4367,10 @@
     </row>
     <row r="18" ht="63.75" spans="1:15">
       <c r="A18" s="51" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B18" s="12">
-        <v>1680196.4</v>
+        <v>1974944</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4532,10 +4388,10 @@
     </row>
     <row r="19" ht="63.75" spans="1:15">
       <c r="A19" s="51" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12">
-        <v>382496.29</v>
+        <v>484939.57</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4553,10 +4409,10 @@
     </row>
     <row r="20" ht="63.75" spans="1:15">
       <c r="A20" s="51" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B20" s="12">
-        <v>15319.93</v>
+        <v>831440.25</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -4574,10 +4430,10 @@
     </row>
     <row r="21" ht="63.75" spans="1:15">
       <c r="A21" s="51" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B21" s="12">
-        <v>471649.84</v>
+        <v>5255.03</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -4595,10 +4451,10 @@
     </row>
     <row r="22" ht="63.75" spans="1:15">
       <c r="A22" s="51" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B22" s="12">
-        <v>18899.64</v>
+        <v>86798.14</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -4616,10 +4472,10 @@
     </row>
     <row r="23" ht="63.75" spans="1:15">
       <c r="A23" s="51" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B23" s="12">
-        <v>8139.82</v>
+        <v>0.34</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -4637,10 +4493,10 @@
     </row>
     <row r="24" ht="63.75" spans="1:15">
       <c r="A24" s="51" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B24" s="12">
-        <v>0.06</v>
+        <v>1.12</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4656,219 +4512,79 @@
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
     </row>
-    <row r="25" ht="63.75" spans="1:15">
-      <c r="A25" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="12">
-        <v>86798.14</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+    <row r="25" customHeight="1" spans="1:15">
+      <c r="A25" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="40">
+        <f>SUM(B4:B24)</f>
+      </c>
+      <c r="C25" s="41">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-    </row>
-    <row r="26" ht="63.75" spans="1:15">
-      <c r="A26" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="12">
-        <v>11.96</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" customHeight="1" spans="12:15">
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-    </row>
-    <row r="27" ht="63.75" spans="1:15">
-      <c r="A27" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="12">
-        <v>153.92</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" customHeight="1" spans="12:14">
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-    </row>
-    <row r="28" ht="63.75" spans="1:15">
-      <c r="A28" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="12">
-        <v>44496.72</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+    </row>
+    <row r="28" customHeight="1" spans="12:14">
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-    </row>
-    <row r="29" ht="63.75" spans="1:15">
-      <c r="A29" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="12">
-        <v>2.04</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" customHeight="1" spans="12:14">
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-    </row>
-    <row r="30" ht="63.75" spans="1:15">
-      <c r="A30" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="12">
-        <v>306.44</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+    </row>
+    <row r="30" customHeight="1" spans="12:13">
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-    </row>
-    <row r="31" ht="63.75" spans="1:15">
-      <c r="A31" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1733.42</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
+    </row>
+    <row r="31" customHeight="1" spans="12:13">
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:15">
-      <c r="A32" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="40">
-        <f>SUM(B4:B31)</f>
-      </c>
-      <c r="C32" s="41">
-        <v>0</v>
-      </c>
-      <c r="D32" s="41">
-        <v>0</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0</v>
-      </c>
-      <c r="F32" s="41">
-        <v>0</v>
-      </c>
-      <c r="G32" s="41">
-        <v>0</v>
-      </c>
-      <c r="H32" s="41">
-        <v>0</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+    </row>
+    <row r="32" customHeight="1" spans="12:13">
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" customHeight="1" spans="12:15">
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" customHeight="1" spans="12:14">
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" customHeight="1" spans="12:14">
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="28"/>
-    </row>
-    <row r="36" customHeight="1" spans="12:14">
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" customHeight="1" spans="12:13">
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" customHeight="1" spans="12:13">
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" customHeight="1" spans="12:13">
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-    </row>
+    </row>
+    <row r="33" customHeight="1"/>
+    <row r="34" customHeight="1"/>
+    <row r="35" customHeight="1"/>
+    <row r="36" customHeight="1"/>
+    <row r="37" customHeight="1"/>
+    <row r="38" customHeight="1"/>
+    <row r="39" customHeight="1"/>
     <row r="40" customHeight="1"/>
     <row r="41" customHeight="1"/>
     <row r="42" customHeight="1"/>
@@ -4897,13 +4613,6 @@
     <row r="65" customHeight="1"/>
     <row r="66" customHeight="1"/>
     <row r="67" customHeight="1"/>
-    <row r="68" customHeight="1"/>
-    <row r="69" customHeight="1"/>
-    <row r="70" customHeight="1"/>
-    <row r="71" customHeight="1"/>
-    <row r="72" customHeight="1"/>
-    <row r="73" customHeight="1"/>
-    <row r="74" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
@@ -4934,7 +4643,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4951,12 +4660,12 @@
     </row>
     <row r="2" ht="15" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>137                                                                                                         单位：元       </v>
+        <v>115                                                                                                         单位：元       </v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="29" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
@@ -4970,34 +4679,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
@@ -5005,19 +4714,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="32" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C4" s="32">
         <v>31</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E4" s="34">
-        <v>8149.05</v>
+        <v>777.89</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="36"/>
@@ -5030,19 +4739,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="32" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C5" s="32">
         <v>31</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E5" s="34">
-        <v>924.24</v>
+        <v>8149.05</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36"/>
@@ -5055,19 +4764,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="32" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C6" s="32">
         <v>31</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E6" s="34">
-        <v>0.23</v>
+        <v>185891.41</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="36"/>
@@ -5080,19 +4789,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="32" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C7" s="32">
         <v>31</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E7" s="34">
-        <v>10.75</v>
+        <v>48243.79</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="36"/>
@@ -5105,19 +4814,19 @@
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="32" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C8" s="32">
         <v>31</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E8" s="34">
-        <v>199.18</v>
+        <v>13898.76</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
@@ -5130,19 +4839,19 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="32" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C9" s="32">
         <v>31</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E9" s="34">
-        <v>385.1</v>
+        <v>13876.69</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="36"/>
@@ -5155,19 +4864,19 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="32" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C10" s="32">
         <v>31</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E10" s="34">
-        <v>24814.07</v>
+        <v>436</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
@@ -5180,19 +4889,19 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="32" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C11" s="32">
         <v>31</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E11" s="34">
-        <v>5000</v>
+        <v>924.24</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="36"/>
@@ -5205,19 +4914,19 @@
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="32" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C12" s="32">
         <v>31</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E12" s="34">
-        <v>4387.68</v>
+        <v>4743.79</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
@@ -5230,19 +4939,19 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="32" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C13" s="32">
         <v>31</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E13" s="34">
-        <v>299.35</v>
+        <v>0.23</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36"/>
@@ -5255,19 +4964,19 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="32" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C14" s="32">
         <v>31</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E14" s="34">
-        <v>4923.71</v>
+        <v>10.75</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
@@ -5280,19 +4989,19 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="32" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C15" s="32">
         <v>31</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E15" s="34">
-        <v>90.55</v>
+        <v>16.8</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="36"/>
@@ -5305,19 +5014,19 @@
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="32" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C16" s="32">
         <v>31</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E16" s="34">
-        <v>76.38</v>
+        <v>163.21</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
@@ -5330,19 +5039,19 @@
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="32" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C17" s="32">
         <v>31</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E17" s="34">
-        <v>493.51</v>
+        <v>199.18</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="36"/>
@@ -5355,19 +5064,19 @@
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="32" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C18" s="32">
         <v>31</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E18" s="34">
-        <v>123.83</v>
+        <v>12821.18</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
@@ -5380,19 +5089,19 @@
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="32" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C19" s="32">
         <v>31</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E19" s="34">
-        <v>61.44</v>
+        <v>372.21</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -5405,19 +5114,19 @@
     </row>
     <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="32" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C20" s="32">
         <v>31</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E20" s="34">
-        <v>436.83</v>
+        <v>16952.33</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
@@ -5430,19 +5139,19 @@
     </row>
     <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="32" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C21" s="32">
         <v>31</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E21" s="34">
-        <v>154.02</v>
+        <v>385.1</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
@@ -5455,19 +5164,19 @@
     </row>
     <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="32" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C22" s="32">
         <v>31</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E22" s="34">
-        <v>0.32</v>
+        <v>24814.07</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
@@ -5480,19 +5189,19 @@
     </row>
     <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="32" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C23" s="32">
         <v>31</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E23" s="34">
-        <v>190.42</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
@@ -5505,19 +5214,19 @@
     </row>
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="32" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C24" s="32">
         <v>31</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E24" s="34">
-        <v>10</v>
+        <v>4387.68</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
@@ -5530,19 +5239,19 @@
     </row>
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="32" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C25" s="32">
         <v>31</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E25" s="34">
-        <v>167.8</v>
+        <v>299.35</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
@@ -5555,19 +5264,19 @@
     </row>
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="32" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C26" s="32">
         <v>31</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E26" s="34">
-        <v>29651.71</v>
+        <v>4923.71</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
@@ -5580,19 +5289,19 @@
     </row>
     <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="32" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C27" s="32">
         <v>31</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E27" s="34">
-        <v>380.01</v>
+        <v>90.55</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
@@ -5605,19 +5314,19 @@
     </row>
     <row r="28" customHeight="1" spans="1:13">
       <c r="A28" s="32" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C28" s="32">
         <v>31</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="E28" s="34">
-        <v>913.64</v>
+        <v>76.38</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
@@ -5630,19 +5339,19 @@
     </row>
     <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="32" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C29" s="32">
         <v>31</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E29" s="34">
-        <v>0.27</v>
+        <v>493.51</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="36"/>
@@ -5655,19 +5364,19 @@
     </row>
     <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="32" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C30" s="32">
         <v>31</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E30" s="34">
-        <v>0.35</v>
+        <v>123.83</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="36"/>
@@ -5680,19 +5389,19 @@
     </row>
     <row r="31" customHeight="1" spans="1:13">
       <c r="A31" s="32" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C31" s="32">
         <v>31</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E31" s="34">
-        <v>303.27</v>
+        <v>61.44</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
@@ -5705,19 +5414,19 @@
     </row>
     <row r="32" customHeight="1" spans="1:13">
       <c r="A32" s="32" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C32" s="32">
         <v>31</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E32" s="34">
-        <v>1782.84</v>
+        <v>436.83</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="36"/>
@@ -5730,19 +5439,19 @@
     </row>
     <row r="33" customHeight="1" spans="1:13">
       <c r="A33" s="32" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C33" s="32">
         <v>31</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E33" s="34">
-        <v>706.8</v>
+        <v>154.02</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
@@ -5755,19 +5464,19 @@
     </row>
     <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="32" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C34" s="32">
         <v>31</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E34" s="34">
-        <v>6.09</v>
+        <v>0.32</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
@@ -5780,19 +5489,19 @@
     </row>
     <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="32" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C35" s="32">
         <v>31</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E35" s="34">
-        <v>70.15</v>
+        <v>46.23</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36"/>
@@ -5805,19 +5514,19 @@
     </row>
     <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="32" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C36" s="32">
         <v>31</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E36" s="34">
-        <v>436.2</v>
+        <v>190.42</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36"/>
@@ -5830,19 +5539,19 @@
     </row>
     <row r="37" customHeight="1" spans="1:13">
       <c r="A37" s="32" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C37" s="32">
         <v>31</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E37" s="34">
-        <v>215.38</v>
+        <v>10</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="36"/>
@@ -5855,19 +5564,19 @@
     </row>
     <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="32" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C38" s="32">
         <v>31</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E38" s="34">
-        <v>0.01</v>
+        <v>167.8</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="36"/>
@@ -5880,19 +5589,19 @@
     </row>
     <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="32" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C39" s="32">
         <v>31</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E39" s="34">
-        <v>115.24</v>
+        <v>29651.71</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="36"/>
@@ -5905,19 +5614,19 @@
     </row>
     <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="32" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C40" s="32">
         <v>31</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="E40" s="34">
-        <v>341.17</v>
+        <v>380.01</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="36"/>
@@ -5930,19 +5639,19 @@
     </row>
     <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="32" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C41" s="32">
         <v>31</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E41" s="34">
-        <v>0.64</v>
+        <v>913.64</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
@@ -5955,19 +5664,19 @@
     </row>
     <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="32" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C42" s="32">
         <v>31</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E42" s="34">
-        <v>16990.85</v>
+        <v>11179.67</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="36"/>
@@ -5980,19 +5689,19 @@
     </row>
     <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="32" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C43" s="32">
         <v>31</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E43" s="34">
-        <v>634.54</v>
+        <v>0.27</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
@@ -6005,19 +5714,19 @@
     </row>
     <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="32" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C44" s="32">
         <v>31</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E44" s="34">
-        <v>15333.54</v>
+        <v>22155.62</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="36"/>
@@ -6030,19 +5739,19 @@
     </row>
     <row r="45" customHeight="1" spans="1:13">
       <c r="A45" s="32" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C45" s="32">
         <v>31</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E45" s="34">
-        <v>1583.69</v>
+        <v>15357.75</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="36"/>
@@ -6055,19 +5764,19 @@
     </row>
     <row r="46" customHeight="1" spans="1:13">
       <c r="A46" s="32" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C46" s="32">
         <v>31</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E46" s="34">
-        <v>35.77</v>
+        <v>0.35</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="36"/>
@@ -6080,19 +5789,19 @@
     </row>
     <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="32" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C47" s="32">
         <v>31</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E47" s="34">
-        <v>0.75</v>
+        <v>150974.42</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="36"/>
@@ -6105,19 +5814,19 @@
     </row>
     <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="32" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C48" s="32">
         <v>31</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E48" s="34">
-        <v>25903.76</v>
+        <v>303.27</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="36"/>
@@ -6130,19 +5839,19 @@
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="32" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C49" s="32">
         <v>31</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="E49" s="34">
-        <v>88.35</v>
+        <v>1782.84</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="36"/>
@@ -6155,19 +5864,19 @@
     </row>
     <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="32" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C50" s="32">
         <v>31</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E50" s="34">
-        <v>0.57</v>
+        <v>706.8</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="36"/>
@@ -6180,19 +5889,19 @@
     </row>
     <row r="51" customHeight="1" spans="1:13">
       <c r="A51" s="32" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C51" s="32">
         <v>31</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E51" s="34">
-        <v>87684.61</v>
+        <v>11.75</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="36"/>
@@ -6205,19 +5914,19 @@
     </row>
     <row r="52" customHeight="1" spans="1:13">
       <c r="A52" s="32" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C52" s="32">
         <v>31</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E52" s="34">
-        <v>34343.76</v>
+        <v>5595.37</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="36"/>
@@ -6230,19 +5939,19 @@
     </row>
     <row r="53" customHeight="1" spans="1:13">
       <c r="A53" s="32" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C53" s="32">
         <v>31</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E53" s="34">
-        <v>1.8</v>
+        <v>6.09</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="36"/>
@@ -6255,19 +5964,19 @@
     </row>
     <row r="54" customHeight="1" spans="1:13">
       <c r="A54" s="32" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C54" s="32">
         <v>31</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E54" s="34">
-        <v>0.74</v>
+        <v>100.9</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="36"/>
@@ -6280,19 +5989,19 @@
     </row>
     <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="32" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C55" s="32">
         <v>31</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E55" s="34">
-        <v>156.23</v>
+        <v>70.15</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="36"/>
@@ -6305,19 +6014,19 @@
     </row>
     <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="32" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C56" s="32">
         <v>31</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E56" s="34">
-        <v>495</v>
+        <v>436.2</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="36"/>
@@ -6330,19 +6039,19 @@
     </row>
     <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="32" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C57" s="32">
         <v>31</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E57" s="34">
-        <v>46.23</v>
+        <v>1731.82</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="36"/>
@@ -6355,19 +6064,19 @@
     </row>
     <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="32" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C58" s="32">
         <v>31</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E58" s="34">
-        <v>130.84</v>
+        <v>215.38</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="36"/>
@@ -6380,19 +6089,19 @@
     </row>
     <row r="59" customHeight="1" spans="1:13">
       <c r="A59" s="32" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C59" s="32">
         <v>31</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E59" s="34">
-        <v>2.14</v>
+        <v>0.01</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="36"/>
@@ -6405,19 +6114,19 @@
     </row>
     <row r="60" customHeight="1" spans="1:13">
       <c r="A60" s="32" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C60" s="32">
         <v>31</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E60" s="34">
-        <v>4301.93</v>
+        <v>5219.3</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="36"/>
@@ -6430,19 +6139,19 @@
     </row>
     <row r="61" customHeight="1" spans="1:13">
       <c r="A61" s="32" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C61" s="32">
         <v>31</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="E61" s="34">
-        <v>9.08</v>
+        <v>193.48</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="36"/>
@@ -6455,19 +6164,19 @@
     </row>
     <row r="62" customHeight="1" spans="1:13">
       <c r="A62" s="32" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C62" s="32">
         <v>31</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E62" s="34">
-        <v>0.76</v>
+        <v>6667.17</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="36"/>
@@ -6480,19 +6189,19 @@
     </row>
     <row r="63" customHeight="1" spans="1:13">
       <c r="A63" s="32" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C63" s="32">
         <v>31</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E63" s="34">
-        <v>2346.4</v>
+        <v>105.83</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="36"/>
@@ -6505,19 +6214,19 @@
     </row>
     <row r="64" customHeight="1" spans="1:13">
       <c r="A64" s="32" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C64" s="32">
         <v>31</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="E64" s="34">
-        <v>93345.76</v>
+        <v>13.05</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="36"/>
@@ -6530,19 +6239,19 @@
     </row>
     <row r="65" customHeight="1" spans="1:13">
       <c r="A65" s="32" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C65" s="32">
         <v>31</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="E65" s="34">
-        <v>11624.72</v>
+        <v>12005.27</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="36"/>
@@ -6555,19 +6264,19 @@
     </row>
     <row r="66" customHeight="1" spans="1:13">
       <c r="A66" s="32" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C66" s="32">
         <v>31</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="E66" s="34">
-        <v>5236.24</v>
+        <v>45571.52</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="36"/>
@@ -6580,19 +6289,19 @@
     </row>
     <row r="67" customHeight="1" spans="1:13">
       <c r="A67" s="32" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C67" s="32">
         <v>31</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E67" s="34">
-        <v>39406.06</v>
+        <v>115.24</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="36"/>
@@ -6605,19 +6314,19 @@
     </row>
     <row r="68" customHeight="1" spans="1:13">
       <c r="A68" s="32" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C68" s="32">
         <v>31</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="E68" s="34">
-        <v>492.93</v>
+        <v>8587.63</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="36"/>
@@ -6630,19 +6339,19 @@
     </row>
     <row r="69" customHeight="1" spans="1:13">
       <c r="A69" s="32" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C69" s="32">
         <v>31</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="E69" s="34">
-        <v>455.59</v>
+        <v>341.17</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="36"/>
@@ -6655,19 +6364,19 @@
     </row>
     <row r="70" customHeight="1" spans="1:13">
       <c r="A70" s="32" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C70" s="32">
         <v>31</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E70" s="34">
-        <v>1796.54</v>
+        <v>29088.63</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="36"/>
@@ -6680,19 +6389,19 @@
     </row>
     <row r="71" customHeight="1" spans="1:13">
       <c r="A71" s="32" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C71" s="32">
         <v>31</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E71" s="34">
-        <v>200.01</v>
+        <v>292.25</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="36"/>
@@ -6705,19 +6414,19 @@
     </row>
     <row r="72" customHeight="1" spans="1:13">
       <c r="A72" s="32" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C72" s="32">
         <v>31</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="E72" s="34">
-        <v>0.01</v>
+        <v>0.64</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="36"/>
@@ -6730,19 +6439,19 @@
     </row>
     <row r="73" customHeight="1" spans="1:13">
       <c r="A73" s="32" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C73" s="32">
         <v>31</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E73" s="34">
-        <v>11392.67</v>
+        <v>292.26</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="36"/>
@@ -6755,19 +6464,19 @@
     </row>
     <row r="74" customHeight="1" spans="1:13">
       <c r="A74" s="32" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C74" s="32">
         <v>31</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E74" s="34">
-        <v>891.49</v>
+        <v>546.27</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="36"/>
@@ -6780,19 +6489,19 @@
     </row>
     <row r="75" customHeight="1" spans="1:13">
       <c r="A75" s="32" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C75" s="32">
         <v>31</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="E75" s="34">
-        <v>7861.78</v>
+        <v>3121.18</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="36"/>
@@ -6805,19 +6514,19 @@
     </row>
     <row r="76" customHeight="1" spans="1:13">
       <c r="A76" s="32" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C76" s="32">
         <v>31</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="E76" s="34">
-        <v>1782.64</v>
+        <v>1.85</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="36"/>
@@ -6830,19 +6539,19 @@
     </row>
     <row r="77" customHeight="1" spans="1:13">
       <c r="A77" s="32" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C77" s="32">
         <v>31</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="E77" s="34">
-        <v>7392.12</v>
+        <v>2476.02</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="36"/>
@@ -6855,19 +6564,19 @@
     </row>
     <row r="78" customHeight="1" spans="1:13">
       <c r="A78" s="32" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C78" s="32">
         <v>31</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E78" s="34">
-        <v>1367.05</v>
+        <v>2.14</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="36"/>
@@ -6880,19 +6589,19 @@
     </row>
     <row r="79" customHeight="1" spans="1:13">
       <c r="A79" s="32" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C79" s="32">
         <v>31</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="E79" s="34">
-        <v>7348.97</v>
+        <v>74423.44</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="36"/>
@@ -6905,19 +6614,19 @@
     </row>
     <row r="80" customHeight="1" spans="1:13">
       <c r="A80" s="32" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C80" s="32">
         <v>31</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E80" s="34">
-        <v>28980.6</v>
+        <v>2215.82</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="36"/>
@@ -6930,19 +6639,19 @@
     </row>
     <row r="81" customHeight="1" spans="1:13">
       <c r="A81" s="32" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C81" s="32">
         <v>31</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="E81" s="34">
-        <v>6418.87</v>
+        <v>18485.36</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="36"/>
@@ -6955,19 +6664,19 @@
     </row>
     <row r="82" customHeight="1" spans="1:13">
       <c r="A82" s="32" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C82" s="32">
         <v>31</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E82" s="34">
-        <v>14480.45</v>
+        <v>64.76</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="36"/>
@@ -6980,19 +6689,19 @@
     </row>
     <row r="83" customHeight="1" spans="1:13">
       <c r="A83" s="32" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C83" s="32">
         <v>31</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E83" s="34">
-        <v>52882.91</v>
+        <v>46.92</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="36"/>
@@ -7005,19 +6714,19 @@
     </row>
     <row r="84" customHeight="1" spans="1:13">
       <c r="A84" s="32" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C84" s="32">
         <v>31</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E84" s="34">
-        <v>1137.82</v>
+        <v>4288.58</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="36"/>
@@ -7030,19 +6739,19 @@
     </row>
     <row r="85" customHeight="1" spans="1:13">
       <c r="A85" s="32" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C85" s="32">
         <v>31</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="E85" s="34">
-        <v>4018.38</v>
+        <v>16990.85</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="36"/>
@@ -7055,19 +6764,19 @@
     </row>
     <row r="86" customHeight="1" spans="1:13">
       <c r="A86" s="32" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C86" s="32">
         <v>31</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E86" s="34">
-        <v>338.69</v>
+        <v>44101.02</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="36"/>
@@ -7080,19 +6789,19 @@
     </row>
     <row r="87" customHeight="1" spans="1:13">
       <c r="A87" s="32" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C87" s="32">
         <v>31</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="E87" s="34">
-        <v>160.45</v>
+        <v>2210.81</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="36"/>
@@ -7105,19 +6814,19 @@
     </row>
     <row r="88" customHeight="1" spans="1:13">
       <c r="A88" s="32" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C88" s="32">
         <v>31</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E88" s="34">
-        <v>0.01</v>
+        <v>2929.97</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="36"/>
@@ -7130,19 +6839,19 @@
     </row>
     <row r="89" customHeight="1" spans="1:13">
       <c r="A89" s="32" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C89" s="32">
         <v>31</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E89" s="34">
-        <v>778.32</v>
+        <v>2638.02</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="36"/>
@@ -7155,19 +6864,19 @@
     </row>
     <row r="90" customHeight="1" spans="1:13">
       <c r="A90" s="32" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C90" s="32">
         <v>31</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E90" s="34">
-        <v>98139.93</v>
+        <v>14282.93</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="36"/>
@@ -7180,19 +6889,19 @@
     </row>
     <row r="91" customHeight="1" spans="1:13">
       <c r="A91" s="32" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C91" s="32">
         <v>31</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E91" s="34">
-        <v>3255.26</v>
+        <v>9.08</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="36"/>
@@ -7205,19 +6914,19 @@
     </row>
     <row r="92" customHeight="1" spans="1:13">
       <c r="A92" s="32" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C92" s="32">
         <v>31</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E92" s="34">
-        <v>13898.76</v>
+        <v>28556.29</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="36"/>
@@ -7230,19 +6939,19 @@
     </row>
     <row r="93" customHeight="1" spans="1:13">
       <c r="A93" s="32" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C93" s="32">
         <v>31</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="E93" s="34">
-        <v>952.74</v>
+        <v>78.23</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="36"/>
@@ -7255,19 +6964,19 @@
     </row>
     <row r="94" customHeight="1" spans="1:13">
       <c r="A94" s="32" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C94" s="32">
         <v>31</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="E94" s="34">
-        <v>14185.94</v>
+        <v>53161.68</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="36"/>
@@ -7280,19 +6989,19 @@
     </row>
     <row r="95" customHeight="1" spans="1:13">
       <c r="A95" s="32" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C95" s="32">
         <v>31</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="E95" s="34">
-        <v>163.21</v>
+        <v>287.59</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="36"/>
@@ -7305,19 +7014,19 @@
     </row>
     <row r="96" customHeight="1" spans="1:13">
       <c r="A96" s="32" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C96" s="32">
         <v>31</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="E96" s="34">
-        <v>3321.02</v>
+        <v>109.87</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="36"/>
@@ -7330,19 +7039,19 @@
     </row>
     <row r="97" customHeight="1" spans="1:13">
       <c r="A97" s="32" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C97" s="32">
         <v>31</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="E97" s="34">
-        <v>373.25</v>
+        <v>1850.15</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="36"/>
@@ -7355,19 +7064,19 @@
     </row>
     <row r="98" customHeight="1" spans="1:13">
       <c r="A98" s="32" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C98" s="32">
         <v>31</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="E98" s="34">
-        <v>141.72</v>
+        <v>0.76</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="36"/>
@@ -7380,19 +7089,19 @@
     </row>
     <row r="99" customHeight="1" spans="1:13">
       <c r="A99" s="32" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="C99" s="32">
         <v>31</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="E99" s="34">
-        <v>156.28</v>
+        <v>31490.04</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="36"/>
@@ -7405,19 +7114,19 @@
     </row>
     <row r="100" customHeight="1" spans="1:13">
       <c r="A100" s="32" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C100" s="32">
         <v>31</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E100" s="34">
-        <v>11179.67</v>
+        <v>5734.25</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="36"/>
@@ -7430,19 +7139,19 @@
     </row>
     <row r="101" customHeight="1" spans="1:13">
       <c r="A101" s="32" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C101" s="32">
         <v>31</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="E101" s="34">
-        <v>219</v>
+        <v>158.28</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="36"/>
@@ -7455,19 +7164,19 @@
     </row>
     <row r="102" customHeight="1" spans="1:13">
       <c r="A102" s="32" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C102" s="32">
         <v>31</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="E102" s="34">
-        <v>15356.08</v>
+        <v>16062.66</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="36"/>
@@ -7480,19 +7189,19 @@
     </row>
     <row r="103" customHeight="1" spans="1:13">
       <c r="A103" s="32" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C103" s="32">
         <v>31</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="E103" s="34">
-        <v>201778.08</v>
+        <v>126.58</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="36"/>
@@ -7505,19 +7214,19 @@
     </row>
     <row r="104" customHeight="1" spans="1:13">
       <c r="A104" s="32" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C104" s="32">
         <v>31</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="E104" s="34">
-        <v>11.75</v>
+        <v>3177.97</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="36"/>
@@ -7530,19 +7239,19 @@
     </row>
     <row r="105" customHeight="1" spans="1:13">
       <c r="A105" s="32" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="C105" s="32">
         <v>31</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="E105" s="34">
-        <v>436</v>
+        <v>15963.66</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="36"/>
@@ -7555,19 +7264,19 @@
     </row>
     <row r="106" customHeight="1" spans="1:13">
       <c r="A106" s="32" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C106" s="32">
         <v>31</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="E106" s="34">
-        <v>16.8</v>
+        <v>15333.54</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="36"/>
@@ -7580,19 +7289,19 @@
     </row>
     <row r="107" customHeight="1" spans="1:13">
       <c r="A107" s="32" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="C107" s="32">
         <v>31</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E107" s="34">
-        <v>0.11</v>
+        <v>4492.63</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="36"/>
@@ -7605,19 +7314,19 @@
     </row>
     <row r="108" customHeight="1" spans="1:13">
       <c r="A108" s="32" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="C108" s="32">
         <v>31</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="E108" s="34">
-        <v>287.59</v>
+        <v>456.66</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="36"/>
@@ -7630,19 +7339,19 @@
     </row>
     <row r="109" customHeight="1" spans="1:13">
       <c r="A109" s="32" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C109" s="32">
         <v>31</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="E109" s="34">
-        <v>0.01</v>
+        <v>1583.69</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="36"/>
@@ -7655,19 +7364,19 @@
     </row>
     <row r="110" customHeight="1" spans="1:13">
       <c r="A110" s="32" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="C110" s="32">
         <v>31</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E110" s="34">
-        <v>5595.72</v>
+        <v>1796.54</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="36"/>
@@ -7680,19 +7389,19 @@
     </row>
     <row r="111" customHeight="1" spans="1:13">
       <c r="A111" s="32" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="C111" s="32">
         <v>31</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="E111" s="34">
-        <v>100.9</v>
+        <v>56.81</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="36"/>
@@ -7705,19 +7414,19 @@
     </row>
     <row r="112" customHeight="1" spans="1:13">
       <c r="A112" s="32" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C112" s="32">
         <v>31</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E112" s="34">
-        <v>877.12</v>
+        <v>199.81</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="36"/>
@@ -7730,19 +7439,19 @@
     </row>
     <row r="113" customHeight="1" spans="1:13">
       <c r="A113" s="32" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C113" s="32">
         <v>31</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="E113" s="34">
-        <v>4391.3</v>
+        <v>35.77</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="36"/>
@@ -7755,19 +7464,19 @@
     </row>
     <row r="114" customHeight="1" spans="1:13">
       <c r="A114" s="32" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="C114" s="32">
         <v>31</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="E114" s="34">
-        <v>193.48</v>
+        <v>1393.17</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="36"/>
@@ -7780,19 +7489,19 @@
     </row>
     <row r="115" customHeight="1" spans="1:13">
       <c r="A115" s="32" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C115" s="32">
         <v>31</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="E115" s="34">
-        <v>32026.44</v>
+        <v>891.49</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="36"/>
@@ -7805,19 +7514,19 @@
     </row>
     <row r="116" customHeight="1" spans="1:13">
       <c r="A116" s="32" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C116" s="32">
         <v>31</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="E116" s="34">
-        <v>107.31</v>
+        <v>57584.43</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="36"/>
@@ -7830,19 +7539,19 @@
     </row>
     <row r="117" customHeight="1" spans="1:13">
       <c r="A117" s="32" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C117" s="32">
         <v>31</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E117" s="34">
-        <v>13.99</v>
+        <v>0.72</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="36"/>
@@ -7855,19 +7564,19 @@
     </row>
     <row r="118" customHeight="1" spans="1:13">
       <c r="A118" s="32" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C118" s="32">
         <v>31</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E118" s="34">
-        <v>11629.5</v>
+        <v>3013.16</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="36"/>
@@ -7880,19 +7589,19 @@
     </row>
     <row r="119" customHeight="1" spans="1:13">
       <c r="A119" s="32" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="C119" s="32">
         <v>31</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="E119" s="34">
-        <v>7047.53</v>
+        <v>13359.86</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="36"/>
@@ -7905,19 +7614,19 @@
     </row>
     <row r="120" customHeight="1" spans="1:13">
       <c r="A120" s="32" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C120" s="32">
         <v>31</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="E120" s="34">
-        <v>24031.92</v>
+        <v>0.75</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="36"/>
@@ -7930,19 +7639,19 @@
     </row>
     <row r="121" customHeight="1" spans="1:13">
       <c r="A121" s="32" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C121" s="32">
         <v>31</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="E121" s="34">
-        <v>2170.22</v>
+        <v>25903.76</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="36"/>
@@ -7955,19 +7664,19 @@
     </row>
     <row r="122" customHeight="1" spans="1:13">
       <c r="A122" s="32" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C122" s="32">
         <v>31</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="E122" s="34">
-        <v>292.26</v>
+        <v>1782.64</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="36"/>
@@ -7980,19 +7689,19 @@
     </row>
     <row r="123" customHeight="1" spans="1:13">
       <c r="A123" s="32" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C123" s="32">
         <v>31</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E123" s="34">
-        <v>201.55</v>
+        <v>7392.12</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="36"/>
@@ -8005,19 +7714,19 @@
     </row>
     <row r="124" customHeight="1" spans="1:13">
       <c r="A124" s="32" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C124" s="32">
         <v>31</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="E124" s="34">
-        <v>3120.44</v>
+        <v>885.69</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="36"/>
@@ -8030,19 +7739,19 @@
     </row>
     <row r="125" customHeight="1" spans="1:13">
       <c r="A125" s="32" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C125" s="32">
         <v>31</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E125" s="34">
-        <v>1.85</v>
+        <v>7348.97</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="36"/>
@@ -8055,19 +7764,19 @@
     </row>
     <row r="126" customHeight="1" spans="1:13">
       <c r="A126" s="32" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C126" s="32">
         <v>31</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E126" s="34">
-        <v>9461.88</v>
+        <v>3968.7</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="36"/>
@@ -8080,19 +7789,19 @@
     </row>
     <row r="127" customHeight="1" spans="1:13">
       <c r="A127" s="32" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C127" s="32">
         <v>31</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E127" s="34">
-        <v>184054.6</v>
+        <v>81426.88</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="36"/>
@@ -8105,19 +7814,19 @@
     </row>
     <row r="128" customHeight="1" spans="1:13">
       <c r="A128" s="32" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="C128" s="32">
         <v>31</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="E128" s="34">
-        <v>6464.25</v>
+        <v>4855.43</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="36"/>
@@ -8130,19 +7839,19 @@
     </row>
     <row r="129" customHeight="1" spans="1:13">
       <c r="A129" s="32" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C129" s="32">
         <v>31</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E129" s="34">
-        <v>5356.86</v>
+        <v>11360.76</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="36"/>
@@ -8155,19 +7864,19 @@
     </row>
     <row r="130" customHeight="1" spans="1:13">
       <c r="A130" s="32" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C130" s="32">
         <v>31</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="E130" s="34">
-        <v>64.21</v>
+        <v>35978.83</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="36"/>
@@ -8180,19 +7889,19 @@
     </row>
     <row r="131" customHeight="1" spans="1:13">
       <c r="A131" s="32" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C131" s="32">
         <v>31</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="E131" s="34">
-        <v>55555.02</v>
+        <v>14480.45</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="36"/>
@@ -8205,19 +7914,19 @@
     </row>
     <row r="132" customHeight="1" spans="1:13">
       <c r="A132" s="32" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C132" s="32">
         <v>31</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E132" s="34">
-        <v>5666.81</v>
+        <v>49972.16</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="36"/>
@@ -8230,19 +7939,19 @@
     </row>
     <row r="133" customHeight="1" spans="1:13">
       <c r="A133" s="32" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="C133" s="32">
         <v>31</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E133" s="34">
-        <v>2930.53</v>
+        <v>2512.54</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="36"/>
@@ -8255,19 +7964,19 @@
     </row>
     <row r="134" customHeight="1" spans="1:13">
       <c r="A134" s="32" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C134" s="32">
         <v>31</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="E134" s="34">
-        <v>13114.35</v>
+        <v>66807.62</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="36"/>
@@ -8280,19 +7989,19 @@
     </row>
     <row r="135" customHeight="1" spans="1:13">
       <c r="A135" s="32" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C135" s="32">
         <v>31</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="E135" s="34">
-        <v>14282.93</v>
+        <v>1137.82</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="36"/>
@@ -8305,19 +8014,19 @@
     </row>
     <row r="136" customHeight="1" spans="1:13">
       <c r="A136" s="32" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="C136" s="32">
         <v>31</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="E136" s="34">
-        <v>15275.68</v>
+        <v>327.94</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="36"/>
@@ -8330,19 +8039,19 @@
     </row>
     <row r="137" customHeight="1" spans="1:13">
       <c r="A137" s="32" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="C137" s="32">
         <v>31</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="E137" s="34">
-        <v>78.23</v>
+        <v>10620.36</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="36"/>
@@ -8355,19 +8064,19 @@
     </row>
     <row r="138" customHeight="1" spans="1:13">
       <c r="A138" s="32" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="C138" s="32">
         <v>31</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="E138" s="34">
-        <v>52245.74</v>
+        <v>88.35</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="36"/>
@@ -8380,19 +8089,19 @@
     </row>
     <row r="139" customHeight="1" spans="1:13">
       <c r="A139" s="32" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="C139" s="32">
         <v>31</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E139" s="34">
-        <v>109.87</v>
+        <v>338.8</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="36"/>
@@ -8405,19 +8114,19 @@
     </row>
     <row r="140" customHeight="1" spans="1:13">
       <c r="A140" s="32" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C140" s="32">
         <v>31</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E140" s="34">
-        <v>1850.15</v>
+        <v>0.6</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="36"/>
@@ -8430,19 +8139,19 @@
     </row>
     <row r="141" customHeight="1" spans="1:13">
       <c r="A141" s="32" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C141" s="32">
         <v>31</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="E141" s="34">
-        <v>12094.04</v>
+        <v>160.45</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="36"/>
@@ -8455,19 +8164,19 @@
     </row>
     <row r="142" customHeight="1" spans="1:13">
       <c r="A142" s="32" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="C142" s="32">
         <v>31</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="E142" s="34">
-        <v>34258.65</v>
+        <v>0.01</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="36"/>
@@ -8480,19 +8189,19 @@
     </row>
     <row r="143" customHeight="1" spans="1:13">
       <c r="A143" s="32" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C143" s="32">
         <v>31</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="E143" s="34">
-        <v>1399.19</v>
+        <v>17007.69</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="36"/>
@@ -8505,19 +8214,19 @@
     </row>
     <row r="144" customHeight="1" spans="1:13">
       <c r="A144" s="32" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="C144" s="32">
         <v>31</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E144" s="34">
-        <v>386.58</v>
+        <v>5898.86</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="36"/>
@@ -8530,19 +8239,19 @@
     </row>
     <row r="145" customHeight="1" spans="1:13">
       <c r="A145" s="32" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C145" s="32">
         <v>31</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="E145" s="34">
-        <v>2708.47</v>
+        <v>5.8</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="36"/>
@@ -8555,19 +8264,19 @@
     </row>
     <row r="146" customHeight="1" spans="1:13">
       <c r="A146" s="32" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="C146" s="32">
         <v>31</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="E146" s="34">
-        <v>2934.76</v>
+        <v>0.74</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="36"/>
@@ -8580,19 +8289,19 @@
     </row>
     <row r="147" customHeight="1" spans="1:13">
       <c r="A147" s="32" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="C147" s="32">
         <v>31</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="E147" s="34">
-        <v>66807.62</v>
+        <v>156.23</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="36"/>
@@ -8603,28 +8312,78 @@
       <c r="L147" s="27"/>
       <c r="M147" s="28"/>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="40">
-        <f>SUM(E4:E147)</f>
-      </c>
-      <c r="F148" s="41">
+    <row r="148" customHeight="1" spans="1:13">
+      <c r="A148" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C148" s="32">
+        <v>31</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E148" s="34">
+        <v>495</v>
+      </c>
+      <c r="F148" s="35"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="28"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:13">
+      <c r="A149" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="32">
+        <v>31</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="E149" s="34">
+        <v>5360</v>
+      </c>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="28"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="40">
+        <f>SUM(E4:E149)</f>
+      </c>
+      <c r="F150" s="41">
         <v>0</v>
       </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="43"/>
-      <c r="I148" s="43"/>
-      <c r="J148" s="43"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A150:C150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -8650,7 +8409,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8667,13 +8426,13 @@
     </row>
     <row r="2" ht="15" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>583                                                                                                              单位：元       </v>
+        <v>567                                                                                                              单位：元       </v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -8686,31 +8445,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -8719,16 +8478,16 @@
     </row>
     <row r="4" ht="63.75" spans="1:13">
       <c r="A4" s="16" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C4" s="18">
         <v>31</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -8744,16 +8503,16 @@
     </row>
     <row r="5" ht="63.75" spans="1:13">
       <c r="A5" s="16" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C5" s="18">
         <v>31</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="E5" s="12">
         <v>2000</v>
@@ -8769,19 +8528,19 @@
     </row>
     <row r="6" ht="63.75" spans="1:13">
       <c r="A6" s="16" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C6" s="18">
         <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="E6" s="12">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
@@ -8794,19 +8553,19 @@
     </row>
     <row r="7" ht="63.75" spans="1:13">
       <c r="A7" s="16" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C7" s="18">
         <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -8819,19 +8578,19 @@
     </row>
     <row r="8" ht="63.75" spans="1:13">
       <c r="A8" s="16" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C8" s="18">
         <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="E8" s="12">
-        <v>93204.06</v>
+        <v>8000</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
@@ -8844,19 +8603,19 @@
     </row>
     <row r="9" ht="63.75" spans="1:13">
       <c r="A9" s="16" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C9" s="18">
         <v>31</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E9" s="12">
-        <v>62000</v>
+        <v>129254</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
@@ -8869,16 +8628,16 @@
     </row>
     <row r="10" ht="63.75" spans="1:13">
       <c r="A10" s="16" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C10" s="18">
         <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -8894,19 +8653,19 @@
     </row>
     <row r="11" ht="63.75" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C11" s="18">
         <v>31</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="E11" s="12">
-        <v>30000</v>
+        <v>64231.88</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
@@ -8919,19 +8678,19 @@
     </row>
     <row r="12" ht="63.75" spans="1:13">
       <c r="A12" s="16" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C12" s="18">
         <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E12" s="12">
-        <v>30000</v>
+        <v>62000</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -8944,19 +8703,19 @@
     </row>
     <row r="13" ht="63.75" spans="1:13">
       <c r="A13" s="16" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C13" s="18">
         <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="E13" s="12">
-        <v>45208</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -8969,19 +8728,19 @@
     </row>
     <row r="14" ht="63.75" spans="1:13">
       <c r="A14" s="16" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C14" s="18">
         <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>7739</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -8992,30 +8751,102 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23">
-        <f>SUM(E4:E14)</f>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" customHeight="1"/>
-    <row r="17" customHeight="1" spans="5:5">
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" customHeight="1"/>
+    <row r="15" ht="63.75" spans="1:13">
+      <c r="A15" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="18">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="12">
+        <v>30000</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" ht="63.75" spans="1:13">
+      <c r="A16" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" s="18">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45208</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" ht="63.75" spans="1:13">
+      <c r="A17" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" s="18">
+        <v>31</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E17" s="12">
+        <v>22261</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23">
+        <f>SUM(E4:E17)</f>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
     <row r="19" customHeight="1"/>
-    <row r="20" customHeight="1"/>
+    <row r="20" customHeight="1" spans="5:5">
+      <c r="E20" s="23"/>
+    </row>
     <row r="21" customHeight="1"/>
     <row r="22" customHeight="1"/>
     <row r="23" customHeight="1"/>
@@ -9075,10 +8906,13 @@
     <row r="77" customHeight="1"/>
     <row r="78" customHeight="1"/>
     <row r="79" customHeight="1"/>
+    <row r="80" customHeight="1"/>
+    <row r="81" customHeight="1"/>
+    <row r="82" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
